--- a/data/financial_statements/sofp/HAL.xlsx
+++ b/data/financial_statements/sofp/HAL.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -131,9 +251,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +303,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -488,898 +602,919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AO37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>2346000000</v>
+      </c>
+      <c r="C2">
         <v>1977000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2226000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2154000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3044000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2632000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2658000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2446000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2563000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2115000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1811000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1385000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2268000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1571000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1176000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1380000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2008000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2057000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>2472000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>2332000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>2337000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1898000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>2139000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>2107000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4009000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3289000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3108000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>9593000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>10077000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>2249000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>2760000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>2294000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>2291000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2029000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>2360000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>2123000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>2356000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1491000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1412000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>2029000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4627000000</v>
+      </c>
+      <c r="C3">
         <v>4614000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4390000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4026000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3666000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3525000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3459000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3250000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3071000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3145000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3345000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4850000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4577000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>5290000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>5700000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>5622000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>5234000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>5526000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>5403000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5255000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5036000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>4852000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4385000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4008000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3922000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>4360000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>4725000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4983000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>5317000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>5791000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>5633000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>6419000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>7564000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>7555000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>6781000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>6314000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>6181000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>6626000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>6359000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>6210000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2923000000</v>
+      </c>
+      <c r="C4">
         <v>2842000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2654000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2578000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2361000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2354000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2355000000</v>
-      </c>
-      <c r="H4">
-        <v>2349000000</v>
       </c>
       <c r="I4">
         <v>2349000000</v>
       </c>
       <c r="J4">
+        <v>2349000000</v>
+      </c>
+      <c r="K4">
         <v>2580000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2745000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>3220000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3139000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>3380000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>3347000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3264000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>3028000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2887000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2637000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2458000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2396000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2444000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2283000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2295000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2275000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2475000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2650000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>2893000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>2993000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>2692000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>2831000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>3467000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>3571000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>3650000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>3529000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>3415000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>3305000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>3399000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>3341000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>3257000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1056000000</v>
+      </c>
+      <c r="C5">
         <v>978000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>992000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>959000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>872000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>920000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1455000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1475000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1492000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1183000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1198000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1200000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1228000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>979000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>997000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>922000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>881000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>966000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>924000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>990000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1008000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>897000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>896000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>863000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>886000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>933000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>998000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>438000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>1156000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>4187000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>4000000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1645000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>563000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1613000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1495000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1634000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>737000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1374000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1509000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>1656000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>10952000000</v>
+      </c>
+      <c r="C6">
         <v>10411000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>10262000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>9717000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9943000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9431000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9927000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9520000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>9475000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9023000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>9099000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>10655000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>11212000000</v>
-      </c>
-      <c r="N6">
-        <v>11220000000</v>
       </c>
       <c r="O6">
         <v>11220000000</v>
       </c>
       <c r="P6">
+        <v>11220000000</v>
+      </c>
+      <c r="Q6">
         <v>11188000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>11151000000</v>
-      </c>
-      <c r="R6">
-        <v>11436000000</v>
       </c>
       <c r="S6">
         <v>11436000000</v>
       </c>
       <c r="T6">
+        <v>11436000000</v>
+      </c>
+      <c r="U6">
         <v>11035000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>10777000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>10144000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>10260000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>9828000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>11677000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>11760000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>12580000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>19105000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>20070000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>14919000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>15224000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>13825000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>14647000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>14847000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>14165000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>13486000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>13704000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>12890000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>12621000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>13152000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>5130000000</v>
+        <v>4348000000</v>
       </c>
       <c r="C7">
-        <v>5059000000</v>
+        <v>4203000000</v>
       </c>
       <c r="D7">
-        <v>5183000000</v>
+        <v>4165000000</v>
       </c>
       <c r="E7">
-        <v>5345000000</v>
+        <v>4270000000</v>
       </c>
       <c r="F7">
-        <v>5219000000</v>
+        <v>4326000000</v>
       </c>
       <c r="G7">
+        <v>4235000000</v>
+      </c>
+      <c r="H7">
         <v>4214000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4231000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4325000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5033000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5156000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6223000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7310000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8721000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8778000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8853000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8873000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8821000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>8825000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8596000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>8521000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>8432000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>8374000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>8415000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>8532000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>8741000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>8961000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>9252000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>12117000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>11018000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>11153000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>12299000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>12475000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>12050000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>11677000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>11463000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>11322000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>10949000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>10753000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>10509000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>349000000</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F8">
         <v>349000000</v>
       </c>
+      <c r="G8">
+        <v>349000000</v>
+      </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
-        <v>2828000000</v>
+        <v>2829000000</v>
       </c>
       <c r="C9">
         <v>2828000000</v>
       </c>
       <c r="D9">
+        <v>2828000000</v>
+      </c>
+      <c r="E9">
         <v>2850000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2843000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2841000000</v>
-      </c>
-      <c r="G9">
-        <v>2804000000</v>
       </c>
       <c r="H9">
         <v>2804000000</v>
@@ -1391,52 +1526,52 @@
         <v>2804000000</v>
       </c>
       <c r="K9">
+        <v>2804000000</v>
+      </c>
+      <c r="L9">
         <v>2801000000</v>
-      </c>
-      <c r="L9">
-        <v>2812000000</v>
       </c>
       <c r="M9">
         <v>2812000000</v>
       </c>
       <c r="N9">
+        <v>2812000000</v>
+      </c>
+      <c r="O9">
         <v>2832000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>2825000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>2824000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2825000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>2800000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2824000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>2707000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>2693000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>2685000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>2407000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>2419000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>2414000000</v>
-      </c>
-      <c r="Z9">
-        <v>2383000000</v>
       </c>
       <c r="AA9">
         <v>2383000000</v>
@@ -1445,1234 +1580,1261 @@
         <v>2383000000</v>
       </c>
       <c r="AC9">
+        <v>2383000000</v>
+      </c>
+      <c r="AD9">
         <v>2385000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>2124000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1983000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>2332000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>2330000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>2312000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>2267000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>2193000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>2168000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>2125000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>2116000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>2119000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>2636000000</v>
+      </c>
+      <c r="C10">
         <v>2653000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2703000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2743000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2695000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2149000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2174000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>2165000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>2166000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>2056000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2034000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1595000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1683000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1344000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1408000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1348000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1384000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1128000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>1117000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1227000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>1230000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>2191000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>2232000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>2141000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>1960000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>1944000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>1856000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>552000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>1577000000</v>
+      </c>
+      <c r="C11">
         <v>1541000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1593000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1580000000</v>
       </c>
-      <c r="E11">
-        <v>1146000000</v>
-      </c>
       <c r="F11">
-        <v>1036000000</v>
+        <v>1580000000</v>
       </c>
       <c r="G11">
+        <v>1385000000</v>
+      </c>
+      <c r="H11">
         <v>1063000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1095000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1124000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1197000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>1264000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1440000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1429000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1687000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>1671000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>1757000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>1749000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1566000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>1563000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1626000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>1864000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>2338000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>2052000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>2082000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>2417000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>1927000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>1957000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>3192000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>1818000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>2187000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>2246000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2131000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2713000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>2374000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>2375000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>2114000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2029000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>1984000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>1928000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>1904000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>11390000000</v>
+      </c>
+      <c r="C12">
         <v>11225000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>11289000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>11443000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>11444000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>10610000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10255000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10295000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10419000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11090000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>11255000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>12070000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>13234000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>14584000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>14682000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>14782000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>14831000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>14315000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>14329000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>14156000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>14308000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>15646000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>15065000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>15057000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>15323000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>14995000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>15157000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>14827000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>16872000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>15329000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>15382000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>16762000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>17518000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>16736000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>16319000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>15770000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>15519000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>15058000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>14797000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>14532000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>23255000000</v>
+      </c>
+      <c r="C13">
         <v>22563000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>22445000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>22073000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>22321000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21025000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>20917000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>20575000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>20680000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>20874000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>21104000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>23622000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>25377000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>26789000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>26880000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>26989000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>25982000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>25751000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>25765000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>25191000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>25085000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>25790000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>25325000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>24885000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>27000000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>26755000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>27737000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>33932000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>36942000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>30248000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>30606000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>30587000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>32165000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>31583000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>30484000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>29256000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>29223000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>27948000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>27418000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>27684000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3121000000</v>
+      </c>
+      <c r="C14">
         <v>3064000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2794000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2561000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2353000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2011000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1891000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1769000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1573000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1548000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>1708000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>2640000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2432000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2733000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>3017000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3080000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3018000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3142000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3029000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2830000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>2554000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2416000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>2166000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>2006000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>1764000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>1543000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1490000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1844000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2019000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>2193000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>2181000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>2424000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2814000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>3005000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>2727000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>2525000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>2365000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2278000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>2251000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>2197000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>634000000</v>
+      </c>
+      <c r="C15">
         <v>538000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>513000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>434000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>493000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>583000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>528000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>479000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>517000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>503000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>486000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>547000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>604000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>657000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>650000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>683000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>714000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>722000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>635000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>647000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>746000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>706000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>583000000</v>
-      </c>
-      <c r="X15">
-        <v>544000000</v>
       </c>
       <c r="Y15">
         <v>544000000</v>
       </c>
       <c r="Z15">
+        <v>544000000</v>
+      </c>
+      <c r="AA15">
         <v>535000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>549000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>609000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>862000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>871000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>809000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>774000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1033000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>986000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>940000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>823000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1029000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>928000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>867000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>771000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>224000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>227000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>237000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>273000000</v>
       </c>
-      <c r="F16">
-        <v>269000000</v>
-      </c>
       <c r="G16">
-        <v>515000000</v>
+        <v>11000000</v>
       </c>
       <c r="H16">
         <v>515000000</v>
       </c>
       <c r="I16">
+        <v>515000000</v>
+      </c>
+      <c r="J16">
         <v>695000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>195000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>188000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>193000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>11000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>208000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>215000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>255000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>35000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>444000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>466000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>512000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>515000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>336000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>97000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>170000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>152000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>763000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3186000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>659000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>648000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>14000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>242000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>205000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>267000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>261000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>216000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>310000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>248000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>231000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>218000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>293000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>407000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>357000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z18">
         <v>261000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>298000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>349000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>350000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>1438000000</v>
+        <v>1366000000</v>
       </c>
       <c r="C19">
-        <v>1540000000</v>
+        <v>900000000</v>
       </c>
       <c r="D19">
-        <v>1379000000</v>
+        <v>1027000000</v>
       </c>
       <c r="E19">
-        <v>1419000000</v>
+        <v>945000000</v>
       </c>
       <c r="F19">
-        <v>1666000000</v>
+        <v>959000000</v>
       </c>
       <c r="G19">
+        <v>1083000000</v>
+      </c>
+      <c r="H19">
         <v>1153000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1212000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1169000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1437000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1500000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1451000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1313000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1094000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>1073000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1029000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>822000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1054000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>999000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1026000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>819000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>964000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>983000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>1195000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>1066000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>1401000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>1676000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>1773000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>1206000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>1991000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2015000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>1820000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>1249000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>1898000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>1702000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>1584000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>925000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>1556000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>1659000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>1698000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>5345000000</v>
+      </c>
+      <c r="C20">
         <v>4968000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4766000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>4444000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>4306000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3946000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>4334000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>4225000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>4421000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>3923000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4094000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5053000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>4878000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>4692000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>4955000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>5047000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>4802000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>4953000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>5107000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>4969000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>4862000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>4601000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>4068000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>3842000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>4023000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>3631000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>4478000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>7412000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>5337000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>5703000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>5005000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>5018000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>5866000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>5889000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>5369000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>4932000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>5026000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>4762000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>4777000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>4666000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>8730000000</v>
+        <v>7928000000</v>
       </c>
       <c r="C21">
-        <v>9311000000</v>
+        <v>7927000000</v>
       </c>
       <c r="D21">
-        <v>9345000000</v>
+        <v>8525000000</v>
       </c>
       <c r="E21">
-        <v>10057000000</v>
+        <v>8530000000</v>
       </c>
       <c r="F21">
-        <v>10032000000</v>
+        <v>9127000000</v>
       </c>
       <c r="G21">
+        <v>9125000000</v>
+      </c>
+      <c r="H21">
         <v>9124000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>9127000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9132000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>9632000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>9638000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>9633000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10316000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>10313000000</v>
-      </c>
-      <c r="O21">
-        <v>10307000000</v>
       </c>
       <c r="P21">
         <v>10307000000</v>
       </c>
       <c r="Q21">
+        <v>10307000000</v>
+      </c>
+      <c r="R21">
         <v>10312000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>10424000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>10427000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>10428000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>10430000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>10423000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>10816000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>10812000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>12214000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>12163000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>12158000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>12207000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>14687000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>7243000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>7838000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>7841000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>7765000000</v>
-      </c>
-      <c r="AH21">
-        <v>7816000000</v>
       </c>
       <c r="AI21">
         <v>7816000000</v>
@@ -2687,672 +2849,687 @@
         <v>7816000000</v>
       </c>
       <c r="AM21">
-        <v>4820000000</v>
+        <v>7816000000</v>
       </c>
       <c r="AN21">
         <v>4820000000</v>
       </c>
+      <c r="AO21">
+        <v>4820000000</v>
+      </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>408000000</v>
+      </c>
+      <c r="C22">
         <v>473000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>466000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>460000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>492000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>547000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>536000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>518000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>562000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>530000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>511000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>477000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>525000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>476000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>469000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>454000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>483000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>594000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>585000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>588000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>609000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>571000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>550000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>539000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>574000000</v>
-      </c>
-      <c r="Z22">
-        <v>449000000</v>
       </c>
       <c r="AA22">
         <v>449000000</v>
       </c>
       <c r="AB22">
+        <v>449000000</v>
+      </c>
+      <c r="AC22">
         <v>447000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>479000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>576000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>595000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>643000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>691000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>580000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>583000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>570000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>584000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>575000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>565000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>566000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>-2653000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-2703000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>-2743000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-2695000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>-2149000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-2174000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-2165000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-2166000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-2056000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>-2034000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-1595000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>-1683000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
-        <v>1220000000</v>
+        <v>806000000</v>
       </c>
       <c r="C24">
-        <v>1220000000</v>
+        <v>747000000</v>
       </c>
       <c r="D24">
-        <v>1251000000</v>
+        <v>754000000</v>
       </c>
       <c r="E24">
-        <v>1230000000</v>
+        <v>791000000</v>
       </c>
       <c r="F24">
-        <v>1354000000</v>
+        <v>823000000</v>
       </c>
       <c r="G24">
+        <v>807000000</v>
+      </c>
+      <c r="H24">
         <v>806000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>808000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>824000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>832000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>886000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>813000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>808000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>784000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>864000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>798000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>841000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>763000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>803000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>815000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>835000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>949000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>938000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>703000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>741000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>786000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>875000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>806000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>944000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>1246000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>1453000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>1462000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>1545000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1780000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2129000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2186000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>2182000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>1977000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>1891000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>1895000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>9933000000</v>
+      </c>
+      <c r="C25">
         <v>9950000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>10531000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>10596000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>11287000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>11386000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>11154000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11171000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>11276000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>11748000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>11814000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>11726000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>12474000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>12335000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>12401000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>12317000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>11636000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>11781000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11815000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>11831000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>11874000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>11943000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>12304000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>12054000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>13529000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>13398000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>13482000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>13460000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>16110000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>9065000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>9886000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>9946000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>10001000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>10176000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>10528000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>10572000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>10582000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>10368000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>7276000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>7281000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>15278000000</v>
+      </c>
+      <c r="C26">
         <v>14918000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>15297000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>15040000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>15593000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>15332000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>15488000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15396000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>15697000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>15671000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>15908000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>16779000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>17352000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>17027000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>17356000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>17364000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>16438000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>16734000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>16922000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>16800000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>16736000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>16544000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>16372000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>15896000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>17552000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>17029000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>17960000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>20872000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>21447000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>14768000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>14891000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>14964000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>15867000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>16065000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>15897000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>15504000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>15608000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>15130000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>12053000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>11947000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>32000000</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>32000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>24000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>26000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>34000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>23000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>125000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>110000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>143000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>108000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>58000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>224000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>211000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>170000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>125000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>222000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>207000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>169000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>131000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>222000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>201000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>184000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>253000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>279000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>274000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>243000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>176000000</v>
-      </c>
-      <c r="AF27">
-        <v>309000000</v>
       </c>
       <c r="AG27">
         <v>309000000</v>
       </c>
       <c r="AH27">
+        <v>309000000</v>
+      </c>
+      <c r="AI27">
         <v>299000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>244000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>410000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>415000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>401000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>367000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>485000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>7948000000</v>
+      </c>
+      <c r="C28">
         <v>2664000000</v>
-      </c>
-      <c r="C28">
-        <v>2665000000</v>
       </c>
       <c r="D28">
         <v>2665000000</v>
@@ -3361,7 +3538,7 @@
         <v>2665000000</v>
       </c>
       <c r="F28">
-        <v>2666000000</v>
+        <v>2665000000</v>
       </c>
       <c r="G28">
         <v>2666000000</v>
@@ -3379,25 +3556,25 @@
         <v>2666000000</v>
       </c>
       <c r="L28">
-        <v>2669000000</v>
+        <v>2666000000</v>
       </c>
       <c r="M28">
         <v>2669000000</v>
       </c>
       <c r="N28">
-        <v>2670000000</v>
+        <v>2669000000</v>
       </c>
       <c r="O28">
         <v>2670000000</v>
       </c>
       <c r="P28">
-        <v>2671000000</v>
+        <v>2670000000</v>
       </c>
       <c r="Q28">
         <v>2671000000</v>
       </c>
       <c r="R28">
-        <v>2672000000</v>
+        <v>2671000000</v>
       </c>
       <c r="S28">
         <v>2672000000</v>
@@ -3406,7 +3583,7 @@
         <v>2672000000</v>
       </c>
       <c r="U28">
-        <v>2673000000</v>
+        <v>2672000000</v>
       </c>
       <c r="V28">
         <v>2673000000</v>
@@ -3415,22 +3592,22 @@
         <v>2673000000</v>
       </c>
       <c r="X28">
-        <v>2674000000</v>
+        <v>2673000000</v>
       </c>
       <c r="Y28">
         <v>2674000000</v>
       </c>
       <c r="Z28">
-        <v>2675000000</v>
+        <v>2674000000</v>
       </c>
       <c r="AA28">
         <v>2675000000</v>
       </c>
       <c r="AB28">
+        <v>2675000000</v>
+      </c>
+      <c r="AC28">
         <v>2676000000</v>
-      </c>
-      <c r="AC28">
-        <v>2677000000</v>
       </c>
       <c r="AD28">
         <v>2677000000</v>
@@ -3439,10 +3616,10 @@
         <v>2677000000</v>
       </c>
       <c r="AF28">
+        <v>2677000000</v>
+      </c>
+      <c r="AG28">
         <v>2678000000</v>
-      </c>
-      <c r="AG28">
-        <v>2679000000</v>
       </c>
       <c r="AH28">
         <v>2679000000</v>
@@ -3451,13 +3628,13 @@
         <v>2679000000</v>
       </c>
       <c r="AJ28">
-        <v>2680000000</v>
+        <v>2679000000</v>
       </c>
       <c r="AK28">
         <v>2680000000</v>
       </c>
       <c r="AL28">
-        <v>2681000000</v>
+        <v>2680000000</v>
       </c>
       <c r="AM28">
         <v>2681000000</v>
@@ -3465,1085 +3642,1103 @@
       <c r="AN28">
         <v>2681000000</v>
       </c>
+      <c r="AO28">
+        <v>2681000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>10024000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>9617000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>9780000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>9710000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>8927000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>8896000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>8709000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>8691000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>8987000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>9098000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>10814000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>11989000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>13800000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>13652000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>13734000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>13739000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>13216000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>12939000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>12586000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>12668000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>13649000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>13441000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>13569000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>14141000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>14445000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>14595000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>17958000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>20524000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>20706000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>20914000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>21013000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>21809000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>21060000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>19984000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>19337000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>18842000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>18177000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>17577000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>17048000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>4918000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4973000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5250000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>5511000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>5576000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>5808000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>5877000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>6021000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>6136000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>6358000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>6412000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>6427000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>6480000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>6520000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>6670000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>6744000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>6597000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>6443000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>6644000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>6757000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>6826000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>6878000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>7062000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>7153000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>7262000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>7428000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>7534000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>7650000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>7727000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>7784000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>8007000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>8131000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>8240000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>8042000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>8399000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>8049000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>8171000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>4986000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>4201000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>7621000000</v>
+        <v>7977000000</v>
       </c>
       <c r="C31">
-        <v>7130000000</v>
+        <v>7645000000</v>
       </c>
       <c r="D31">
-        <v>7017000000</v>
+        <v>7148000000</v>
       </c>
       <c r="E31">
-        <v>6713000000</v>
+        <v>7033000000</v>
       </c>
       <c r="F31">
-        <v>5681000000</v>
+        <v>6728000000</v>
       </c>
       <c r="G31">
+        <v>5693000000</v>
+      </c>
+      <c r="H31">
         <v>5429000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>5179000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>4983000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>5203000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>5196000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>6843000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>8025000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>9762000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>9524000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>9625000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>9544000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>9017000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>8843000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>8391000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>8349000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>9246000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>8953000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>8989000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>9448000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>9726000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>9777000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>13060000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>15495000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>15480000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>15715000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>15623000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>16298000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>15518000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>14587000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>13752000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>13615000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>12818000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>15365000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>15737000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>7621000000</v>
+        <v>7977000000</v>
       </c>
       <c r="C32">
-        <v>7130000000</v>
+        <v>7645000000</v>
       </c>
       <c r="D32">
-        <v>7017000000</v>
+        <v>7148000000</v>
       </c>
       <c r="E32">
-        <v>6713000000</v>
+        <v>7033000000</v>
       </c>
       <c r="F32">
-        <v>5681000000</v>
+        <v>6728000000</v>
       </c>
       <c r="G32">
+        <v>5693000000</v>
+      </c>
+      <c r="H32">
         <v>5429000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>5179000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>4983000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>5203000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>5196000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>6843000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>8025000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>9762000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>9524000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>9625000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>9544000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>9017000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>8843000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>8391000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>8349000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>9246000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>8953000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>8989000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>9448000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>9726000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>9777000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>13060000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>15495000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>15480000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>15715000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>15623000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>16298000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>15518000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>14587000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>13752000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>13615000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>12818000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>15365000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>15737000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>23255000000</v>
+      </c>
+      <c r="C33">
         <v>22563000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>22445000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>22073000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>22321000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>21025000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>20917000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>20575000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>20680000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>20874000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>21104000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>23622000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>25377000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>26789000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>26880000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>26989000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>25982000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>25751000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>25765000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>25191000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>25085000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>25790000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>25325000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>24885000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>27000000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>26755000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>27737000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>33932000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>36942000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>30248000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>30606000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>30587000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>32165000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>31583000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>30484000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>29256000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>29223000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>27948000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>27418000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>27684000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>908000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>907000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>901000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>896000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>894000000</v>
-      </c>
-      <c r="G34">
-        <v>889000000</v>
       </c>
       <c r="H34">
         <v>889000000</v>
       </c>
       <c r="I34">
+        <v>889000000</v>
+      </c>
+      <c r="J34">
         <v>885000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>883000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>877000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>874000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>878000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>876000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>874000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>872000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>871000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>876000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>879000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>875000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>873000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>872000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>870000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>867000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>866000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>864000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>860000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>858000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>856000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>855000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>854000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>849000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>848000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>847000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>850000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>843000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>849000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>847000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>912000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>931000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>5148000000</v>
+      </c>
+      <c r="C35">
         <v>4817000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>4320000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>4183000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3885000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>2852000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>2625000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>2375000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>2179000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2399000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>2395000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>4031000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>5213000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>6930000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>6699000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>6801000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>6719000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>6217000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>6019000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>5684000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>5656000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>6561000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>6546000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>6570000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>7034000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>7343000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>7394000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>10677000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>13110000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>13356000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>13732000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>13291000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>13968000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>13206000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>12320000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>11559000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>11447000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>10693000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>13249000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>13618000000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>6977000000</v>
+        <v>5582000000</v>
       </c>
       <c r="C36">
-        <v>7312000000</v>
+        <v>6174000000</v>
       </c>
       <c r="D36">
-        <v>7428000000</v>
+        <v>6526000000</v>
       </c>
       <c r="E36">
-        <v>7286000000</v>
+        <v>6613000000</v>
       </c>
       <c r="F36">
-        <v>7669000000</v>
+        <v>6356000000</v>
       </c>
       <c r="G36">
+        <v>6504000000</v>
+      </c>
+      <c r="H36">
         <v>6981000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>7196000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>7264000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7712000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>8015000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>8441000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>8059000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>8950000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>9346000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>9182000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>8304000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>8402000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>8399000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>8562000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>8605000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>9040000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>9013000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>8802000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>8375000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>9026000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>9813000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>5800000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>5269000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>5642000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>5078000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>5547000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>5488000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>5787000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>5456000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>5693000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>5460000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>6325000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>3408000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>2791000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B37">
-        <v>8954000000</v>
+        <v>7928000000</v>
       </c>
       <c r="C37">
-        <v>9538000000</v>
+        <v>8151000000</v>
       </c>
       <c r="D37">
-        <v>9582000000</v>
+        <v>8752000000</v>
       </c>
       <c r="E37">
-        <v>10330000000</v>
+        <v>8767000000</v>
       </c>
       <c r="F37">
-        <v>10301000000</v>
+        <v>9400000000</v>
       </c>
       <c r="G37">
+        <v>9136000000</v>
+      </c>
+      <c r="H37">
         <v>9639000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>9642000000</v>
-      </c>
-      <c r="I37">
-        <v>9827000000</v>
       </c>
       <c r="J37">
         <v>9827000000</v>
       </c>
       <c r="K37">
-        <v>9826000000</v>
+        <v>9827000000</v>
       </c>
       <c r="L37">
         <v>9826000000</v>
       </c>
       <c r="M37">
+        <v>9826000000</v>
+      </c>
+      <c r="N37">
         <v>10327000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>10521000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>10522000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>10562000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>10312000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>10459000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>10871000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>10894000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>10942000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>10938000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>11152000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>10909000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>12384000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>12315000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>12921000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>15393000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>15346000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>7891000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>7838000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>7841000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>7779000000</v>
-      </c>
-      <c r="AH37">
-        <v>7816000000</v>
       </c>
       <c r="AI37">
         <v>7816000000</v>
@@ -4558,9 +4753,12 @@
         <v>7816000000</v>
       </c>
       <c r="AM37">
+        <v>7816000000</v>
+      </c>
+      <c r="AN37">
         <v>4820000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>4820000000</v>
       </c>
     </row>
